--- a/data/pca/factorExposure/factorExposure_2016-01-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01615780841166853</v>
+        <v>0.02010824849252601</v>
       </c>
       <c r="C2">
-        <v>0.04279241747917271</v>
+        <v>0.03614490229452411</v>
       </c>
       <c r="D2">
-        <v>0.1096435740366118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1198715025104759</v>
+      </c>
+      <c r="E2">
+        <v>-0.09157775209356257</v>
+      </c>
+      <c r="F2">
+        <v>-0.01182718523096529</v>
+      </c>
+      <c r="G2">
+        <v>0.03636421313210909</v>
+      </c>
+      <c r="H2">
+        <v>-0.09188720732035531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02494336772745672</v>
+        <v>0.01484649232340868</v>
       </c>
       <c r="C3">
-        <v>0.08958545360180679</v>
+        <v>0.04332078653555971</v>
       </c>
       <c r="D3">
-        <v>0.1259413666992411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07852085064197792</v>
+      </c>
+      <c r="E3">
+        <v>-0.1115264253278561</v>
+      </c>
+      <c r="F3">
+        <v>0.03001469850975801</v>
+      </c>
+      <c r="G3">
+        <v>0.08258990272210406</v>
+      </c>
+      <c r="H3">
+        <v>-0.06424399129228059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05802949370009883</v>
+        <v>0.06027385189568962</v>
       </c>
       <c r="C4">
-        <v>0.06976620166592784</v>
+        <v>0.06789440510220258</v>
       </c>
       <c r="D4">
-        <v>0.09525408435811908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1159012093954844</v>
+      </c>
+      <c r="E4">
+        <v>-0.0846461985834055</v>
+      </c>
+      <c r="F4">
+        <v>0.01467714727775852</v>
+      </c>
+      <c r="G4">
+        <v>-0.03614856063114243</v>
+      </c>
+      <c r="H4">
+        <v>0.02776827107437944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04280314093674131</v>
+        <v>0.0402664123726095</v>
       </c>
       <c r="C6">
-        <v>0.03704299224061533</v>
+        <v>0.02739319513019487</v>
       </c>
       <c r="D6">
-        <v>0.1018337247265331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1185921187773361</v>
+      </c>
+      <c r="E6">
+        <v>-0.05551074455293081</v>
+      </c>
+      <c r="F6">
+        <v>0.01293009652495157</v>
+      </c>
+      <c r="G6">
+        <v>0.005505594690428137</v>
+      </c>
+      <c r="H6">
+        <v>-0.005939526435100737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02829139024786836</v>
+        <v>0.02114833269134549</v>
       </c>
       <c r="C7">
-        <v>0.03673395233163824</v>
+        <v>0.03649971117196457</v>
       </c>
       <c r="D7">
-        <v>0.07336402781987382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.08602575688708444</v>
+      </c>
+      <c r="E7">
+        <v>-0.06275404335765793</v>
+      </c>
+      <c r="F7">
+        <v>0.01922107642602927</v>
+      </c>
+      <c r="G7">
+        <v>-0.05934807202020272</v>
+      </c>
+      <c r="H7">
+        <v>-0.08623010020229087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007809206676076989</v>
+        <v>0.007810563885211721</v>
       </c>
       <c r="C8">
-        <v>0.0454173150068828</v>
+        <v>0.03704593418345517</v>
       </c>
       <c r="D8">
-        <v>0.06664434726754763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07707632890129645</v>
+      </c>
+      <c r="E8">
+        <v>-0.04649314098910141</v>
+      </c>
+      <c r="F8">
+        <v>0.02186449982810027</v>
+      </c>
+      <c r="G8">
+        <v>0.007885581011402187</v>
+      </c>
+      <c r="H8">
+        <v>-0.02457297961310727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04181077495153537</v>
+        <v>0.04459840060158999</v>
       </c>
       <c r="C9">
-        <v>0.05022835049987264</v>
+        <v>0.05592219324354252</v>
       </c>
       <c r="D9">
-        <v>0.08599714100178686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1049451437398164</v>
+      </c>
+      <c r="E9">
+        <v>-0.05554117385391009</v>
+      </c>
+      <c r="F9">
+        <v>0.001426652582976299</v>
+      </c>
+      <c r="G9">
+        <v>-0.03807680297618261</v>
+      </c>
+      <c r="H9">
+        <v>0.002129669737483045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08595634772936027</v>
+        <v>0.1139370517885782</v>
       </c>
       <c r="C10">
-        <v>-0.1856656929729029</v>
+        <v>-0.1961128450448967</v>
       </c>
       <c r="D10">
-        <v>0.01575206907347817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002562622654799217</v>
+      </c>
+      <c r="E10">
+        <v>-0.04971026984074031</v>
+      </c>
+      <c r="F10">
+        <v>0.01071134825629092</v>
+      </c>
+      <c r="G10">
+        <v>-0.02638325768612467</v>
+      </c>
+      <c r="H10">
+        <v>0.02423223067866596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04204486149096563</v>
+        <v>0.03477672626103345</v>
       </c>
       <c r="C11">
-        <v>0.04969794862731195</v>
+        <v>0.04561664966247123</v>
       </c>
       <c r="D11">
-        <v>0.05385401432962631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05538723634512441</v>
+      </c>
+      <c r="E11">
+        <v>-0.02334089729824062</v>
+      </c>
+      <c r="F11">
+        <v>0.009628661682834289</v>
+      </c>
+      <c r="G11">
+        <v>-0.04177233793116403</v>
+      </c>
+      <c r="H11">
+        <v>-0.05317397160871697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04688444072294699</v>
+        <v>0.03813827822129041</v>
       </c>
       <c r="C12">
-        <v>0.0473556854747748</v>
+        <v>0.04540787478969132</v>
       </c>
       <c r="D12">
-        <v>0.04220796563943971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05213278315617599</v>
+      </c>
+      <c r="E12">
+        <v>-0.03427217131498158</v>
+      </c>
+      <c r="F12">
+        <v>0.001305385826061176</v>
+      </c>
+      <c r="G12">
+        <v>-0.03881961076085825</v>
+      </c>
+      <c r="H12">
+        <v>-0.06016340473810258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01981954411976911</v>
+        <v>0.02125395302736015</v>
       </c>
       <c r="C13">
-        <v>0.04874333231784801</v>
+        <v>0.03809526408184519</v>
       </c>
       <c r="D13">
-        <v>0.09412530708443588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1236333615219785</v>
+      </c>
+      <c r="E13">
+        <v>-0.09825244499614501</v>
+      </c>
+      <c r="F13">
+        <v>0.02302303755787848</v>
+      </c>
+      <c r="G13">
+        <v>-0.04690528447978531</v>
+      </c>
+      <c r="H13">
+        <v>-0.07199475504781465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01486484347248143</v>
+        <v>0.008990911076177084</v>
       </c>
       <c r="C14">
-        <v>0.02907743733468386</v>
+        <v>0.02653654888594164</v>
       </c>
       <c r="D14">
-        <v>0.06556576152419069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.07771747110816662</v>
+      </c>
+      <c r="E14">
+        <v>-0.05814633226844621</v>
+      </c>
+      <c r="F14">
+        <v>-0.009085974917943709</v>
+      </c>
+      <c r="G14">
+        <v>-0.03731016806805627</v>
+      </c>
+      <c r="H14">
+        <v>-0.08385258680894954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0009404261418028737</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005858404541846301</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02029385530693923</v>
+      </c>
+      <c r="E15">
+        <v>-0.005120944451098685</v>
+      </c>
+      <c r="F15">
+        <v>-0.001592694756946888</v>
+      </c>
+      <c r="G15">
+        <v>0.002208588616655095</v>
+      </c>
+      <c r="H15">
+        <v>-0.01302336058278014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.04234188528454628</v>
+        <v>0.03485459913043491</v>
       </c>
       <c r="C16">
-        <v>0.05073984452328257</v>
+        <v>0.04604860809418641</v>
       </c>
       <c r="D16">
-        <v>0.05299339065665494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05890926967713565</v>
+      </c>
+      <c r="E16">
+        <v>-0.03388906818059797</v>
+      </c>
+      <c r="F16">
+        <v>-0.01003704261735811</v>
+      </c>
+      <c r="G16">
+        <v>-0.03435098304983334</v>
+      </c>
+      <c r="H16">
+        <v>-0.05904715226831691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01837977866770582</v>
+        <v>0.01450456948441704</v>
       </c>
       <c r="C19">
-        <v>0.04885906681895042</v>
+        <v>0.0343209832594259</v>
       </c>
       <c r="D19">
-        <v>0.15332283874653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1300343742719176</v>
+      </c>
+      <c r="E19">
+        <v>-0.08766642613177106</v>
+      </c>
+      <c r="F19">
+        <v>-0.03169245188752468</v>
+      </c>
+      <c r="G19">
+        <v>-0.003368411622457296</v>
+      </c>
+      <c r="H19">
+        <v>-0.04882765495652865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02195962642318924</v>
+        <v>0.01743807421593751</v>
       </c>
       <c r="C20">
-        <v>0.04531991987144133</v>
+        <v>0.03706110649857205</v>
       </c>
       <c r="D20">
-        <v>0.07507846519136878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08692550802199071</v>
+      </c>
+      <c r="E20">
+        <v>-0.07381650227683186</v>
+      </c>
+      <c r="F20">
+        <v>-0.009655661979401363</v>
+      </c>
+      <c r="G20">
+        <v>-0.02340730710430424</v>
+      </c>
+      <c r="H20">
+        <v>-0.04313718564264493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01730868753712795</v>
+        <v>0.01624040754414465</v>
       </c>
       <c r="C21">
-        <v>0.04445217383156104</v>
+        <v>0.03838491381195932</v>
       </c>
       <c r="D21">
-        <v>0.09900405471030159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1230724799142743</v>
+      </c>
+      <c r="E21">
+        <v>-0.1174908420285811</v>
+      </c>
+      <c r="F21">
+        <v>-0.01953330845853913</v>
+      </c>
+      <c r="G21">
+        <v>-0.0716776497756009</v>
+      </c>
+      <c r="H21">
+        <v>-0.0726712903944752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001329525933882729</v>
+        <v>0.005401229787273112</v>
       </c>
       <c r="C22">
-        <v>0.0134195122312291</v>
+        <v>0.03257436801299469</v>
       </c>
       <c r="D22">
-        <v>0.04373806169328814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1046780091684098</v>
+      </c>
+      <c r="E22">
+        <v>-0.04520002390349838</v>
+      </c>
+      <c r="F22">
+        <v>0.07093412391412117</v>
+      </c>
+      <c r="G22">
+        <v>0.05945868461174828</v>
+      </c>
+      <c r="H22">
+        <v>0.01269609116657325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001284214115051562</v>
+        <v>0.005494516969273426</v>
       </c>
       <c r="C23">
-        <v>0.01324749191203862</v>
+        <v>0.03288958081214075</v>
       </c>
       <c r="D23">
-        <v>0.04337149578742998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1039760238032074</v>
+      </c>
+      <c r="E23">
+        <v>-0.04527012239799212</v>
+      </c>
+      <c r="F23">
+        <v>0.07081563666411003</v>
+      </c>
+      <c r="G23">
+        <v>0.05887873786324678</v>
+      </c>
+      <c r="H23">
+        <v>0.01322673789253254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03905017912621515</v>
+        <v>0.03615114098365411</v>
       </c>
       <c r="C24">
-        <v>0.05170777842803034</v>
+        <v>0.05396978880703757</v>
       </c>
       <c r="D24">
-        <v>0.05423926385357945</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06160272425933543</v>
+      </c>
+      <c r="E24">
+        <v>-0.03701615961484792</v>
+      </c>
+      <c r="F24">
+        <v>-0.00686382378271871</v>
+      </c>
+      <c r="G24">
+        <v>-0.05017617126540299</v>
+      </c>
+      <c r="H24">
+        <v>-0.06075334302234268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04825488620908637</v>
+        <v>0.04163425892867224</v>
       </c>
       <c r="C25">
-        <v>0.05719056384198156</v>
+        <v>0.05371703776835832</v>
       </c>
       <c r="D25">
-        <v>0.05140680376487047</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05553295211549678</v>
+      </c>
+      <c r="E25">
+        <v>-0.03599140240176015</v>
+      </c>
+      <c r="F25">
+        <v>0.009643309492078544</v>
+      </c>
+      <c r="G25">
+        <v>-0.05064400301030972</v>
+      </c>
+      <c r="H25">
+        <v>-0.0489599228809162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02452775128446922</v>
+        <v>0.02075669032817632</v>
       </c>
       <c r="C26">
-        <v>0.015241408260608</v>
+        <v>0.01605379463650027</v>
       </c>
       <c r="D26">
-        <v>0.05241187782587925</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06572952223154548</v>
+      </c>
+      <c r="E26">
+        <v>-0.0405719849230784</v>
+      </c>
+      <c r="F26">
+        <v>-0.01303462897684971</v>
+      </c>
+      <c r="G26">
+        <v>-0.01452101153013618</v>
+      </c>
+      <c r="H26">
+        <v>-0.04944412169681629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.116938710524958</v>
+        <v>0.1610549631281092</v>
       </c>
       <c r="C28">
-        <v>-0.2728398693546136</v>
+        <v>-0.2612938580253061</v>
       </c>
       <c r="D28">
-        <v>-0.02863139484918018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01955676143756421</v>
+      </c>
+      <c r="E28">
+        <v>-0.0755799347546726</v>
+      </c>
+      <c r="F28">
+        <v>0.006158015397533518</v>
+      </c>
+      <c r="G28">
+        <v>-0.06672192195387371</v>
+      </c>
+      <c r="H28">
+        <v>0.02654418591103803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.009000692496767673</v>
+        <v>0.008339530671993332</v>
       </c>
       <c r="C29">
-        <v>0.02671318490333577</v>
+        <v>0.02424808904592754</v>
       </c>
       <c r="D29">
-        <v>0.04945313655678849</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0695810085529309</v>
+      </c>
+      <c r="E29">
+        <v>-0.06268750236111846</v>
+      </c>
+      <c r="F29">
+        <v>0.002339432003201087</v>
+      </c>
+      <c r="G29">
+        <v>-0.0470213035448018</v>
+      </c>
+      <c r="H29">
+        <v>-0.0766965078143888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04336361219149799</v>
+        <v>0.04428771199748838</v>
       </c>
       <c r="C30">
-        <v>0.0360217670763182</v>
+        <v>0.05166716304166358</v>
       </c>
       <c r="D30">
-        <v>0.1389657876799365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1645676393457424</v>
+      </c>
+      <c r="E30">
+        <v>-0.04825186740500803</v>
+      </c>
+      <c r="F30">
+        <v>-0.002458045598348421</v>
+      </c>
+      <c r="G30">
+        <v>0.02110581157324182</v>
+      </c>
+      <c r="H30">
+        <v>-0.01863340651358793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0691584914874383</v>
+        <v>0.06374096289777929</v>
       </c>
       <c r="C31">
-        <v>0.06168592693760292</v>
+        <v>0.07165682509093876</v>
       </c>
       <c r="D31">
-        <v>0.03898955595391719</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04389633023689543</v>
+      </c>
+      <c r="E31">
+        <v>-0.06703132513536615</v>
+      </c>
+      <c r="F31">
+        <v>0.03577995554798289</v>
+      </c>
+      <c r="G31">
+        <v>-0.0305678805562536</v>
+      </c>
+      <c r="H31">
+        <v>-0.02412885260691156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0009495261946278106</v>
+        <v>0.009719451540864532</v>
       </c>
       <c r="C32">
-        <v>0.01213157778567119</v>
+        <v>0.01950172541333414</v>
       </c>
       <c r="D32">
-        <v>0.05434566291982074</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.08109714895466552</v>
+      </c>
+      <c r="E32">
+        <v>-0.1015127608971397</v>
+      </c>
+      <c r="F32">
+        <v>-0.01181633052319237</v>
+      </c>
+      <c r="G32">
+        <v>-0.0637958456999594</v>
+      </c>
+      <c r="H32">
+        <v>-0.05331213691734608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03233287980361393</v>
+        <v>0.02739425595497959</v>
       </c>
       <c r="C33">
-        <v>0.04420743875838297</v>
+        <v>0.04481455471311959</v>
       </c>
       <c r="D33">
-        <v>0.1116931077352566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1218020600107447</v>
+      </c>
+      <c r="E33">
+        <v>-0.07386699059841348</v>
+      </c>
+      <c r="F33">
+        <v>0.0146191624802257</v>
+      </c>
+      <c r="G33">
+        <v>-0.04058660862207284</v>
+      </c>
+      <c r="H33">
+        <v>-0.05177328073710343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04193037581135334</v>
+        <v>0.03651785014736204</v>
       </c>
       <c r="C34">
-        <v>0.0626388318619531</v>
+        <v>0.06135207460214563</v>
       </c>
       <c r="D34">
-        <v>0.05796682169833794</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05777204498176599</v>
+      </c>
+      <c r="E34">
+        <v>-0.01783456734982494</v>
+      </c>
+      <c r="F34">
+        <v>-0.0006989519280418178</v>
+      </c>
+      <c r="G34">
+        <v>-0.05764637230471698</v>
+      </c>
+      <c r="H34">
+        <v>-0.06926895523997835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0002845707278449017</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>4.944163852823017e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.001575917702908223</v>
+      </c>
+      <c r="E35">
+        <v>-0.0001348390672795273</v>
+      </c>
+      <c r="F35">
+        <v>0.0002536046609562337</v>
+      </c>
+      <c r="G35">
+        <v>-0.0005656676521788649</v>
+      </c>
+      <c r="H35">
+        <v>-0.001991794493647386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02294165488249216</v>
+        <v>0.01906405926200032</v>
       </c>
       <c r="C36">
-        <v>0.01814458784513623</v>
+        <v>0.01752298815920278</v>
       </c>
       <c r="D36">
-        <v>0.05707429670558821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.06915608543935187</v>
+      </c>
+      <c r="E36">
+        <v>-0.05669812691760528</v>
+      </c>
+      <c r="F36">
+        <v>-0.004796576067519483</v>
+      </c>
+      <c r="G36">
+        <v>-0.03439117095955833</v>
+      </c>
+      <c r="H36">
+        <v>-0.04139757064679186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03458593388221927</v>
+        <v>0.02514569435098593</v>
       </c>
       <c r="C38">
-        <v>0.03555236851830727</v>
+        <v>0.02569244027941751</v>
       </c>
       <c r="D38">
-        <v>0.0339836015857824</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05454643720999951</v>
+      </c>
+      <c r="E38">
+        <v>-0.0448719879230552</v>
+      </c>
+      <c r="F38">
+        <v>-0.003541762458761533</v>
+      </c>
+      <c r="G38">
+        <v>0.01464662147700252</v>
+      </c>
+      <c r="H38">
+        <v>-0.03628112747735245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04665230202280014</v>
+        <v>0.04177999642144772</v>
       </c>
       <c r="C39">
-        <v>0.05865996758597619</v>
+        <v>0.06097240856453487</v>
       </c>
       <c r="D39">
-        <v>0.07304397480554571</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.093082077179688</v>
+      </c>
+      <c r="E39">
+        <v>-0.03221305939815932</v>
+      </c>
+      <c r="F39">
+        <v>-0.02003025181969761</v>
+      </c>
+      <c r="G39">
+        <v>-0.03772659774791693</v>
+      </c>
+      <c r="H39">
+        <v>-0.07843148935492238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01319695918542185</v>
+        <v>0.01591133989467529</v>
       </c>
       <c r="C40">
-        <v>0.05375617784075624</v>
+        <v>0.03885851964797303</v>
       </c>
       <c r="D40">
-        <v>0.06700947109524338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08476583751189752</v>
+      </c>
+      <c r="E40">
+        <v>-0.09952163529147172</v>
+      </c>
+      <c r="F40">
+        <v>0.04007596379711971</v>
+      </c>
+      <c r="G40">
+        <v>-0.0192522558754674</v>
+      </c>
+      <c r="H40">
+        <v>-0.1316745738460012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02815972032550109</v>
+        <v>0.02284347636055508</v>
       </c>
       <c r="C41">
-        <v>0.01124696358214227</v>
+        <v>0.01098340182224986</v>
       </c>
       <c r="D41">
-        <v>0.05394014342977886</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0520149185225053</v>
+      </c>
+      <c r="E41">
+        <v>-0.06919679181748278</v>
+      </c>
+      <c r="F41">
+        <v>-0.005093857319173037</v>
+      </c>
+      <c r="G41">
+        <v>-0.02371194358963409</v>
+      </c>
+      <c r="H41">
+        <v>-0.04120007077582785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04451074310494188</v>
+        <v>0.0294906834236982</v>
       </c>
       <c r="C43">
-        <v>0.03024917029591956</v>
+        <v>0.02320084015070536</v>
       </c>
       <c r="D43">
-        <v>0.09178370540968893</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08487137394890416</v>
+      </c>
+      <c r="E43">
+        <v>-0.06537722052501704</v>
+      </c>
+      <c r="F43">
+        <v>0.00602776014626062</v>
+      </c>
+      <c r="G43">
+        <v>-0.0351212788179608</v>
+      </c>
+      <c r="H43">
+        <v>-0.05976111350114135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01552413601854297</v>
+        <v>0.01834828602317484</v>
       </c>
       <c r="C44">
-        <v>0.05872405987103592</v>
+        <v>0.04317358847380003</v>
       </c>
       <c r="D44">
-        <v>0.05622398974993775</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08378307256358332</v>
+      </c>
+      <c r="E44">
+        <v>-0.0818570832203017</v>
+      </c>
+      <c r="F44">
+        <v>-0.01835680891861694</v>
+      </c>
+      <c r="G44">
+        <v>-0.03518535283481083</v>
+      </c>
+      <c r="H44">
+        <v>-0.0490324669739425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01829243713824837</v>
+        <v>0.01619912112256618</v>
       </c>
       <c r="C46">
-        <v>0.02938926508014209</v>
+        <v>0.03086491340123706</v>
       </c>
       <c r="D46">
-        <v>0.0484556199063219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0688475281769886</v>
+      </c>
+      <c r="E46">
+        <v>-0.06548140121843385</v>
+      </c>
+      <c r="F46">
+        <v>-0.0158891190282059</v>
+      </c>
+      <c r="G46">
+        <v>-0.06467687329229513</v>
+      </c>
+      <c r="H46">
+        <v>-0.0791394034527504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09655957539380748</v>
+        <v>0.09498700250747011</v>
       </c>
       <c r="C47">
-        <v>0.07966158114932463</v>
+        <v>0.08852365503555233</v>
       </c>
       <c r="D47">
-        <v>0.01670253472668674</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02395683618754238</v>
+      </c>
+      <c r="E47">
+        <v>-0.0550498488257634</v>
+      </c>
+      <c r="F47">
+        <v>0.02496606486891204</v>
+      </c>
+      <c r="G47">
+        <v>-0.06008410213033048</v>
+      </c>
+      <c r="H47">
+        <v>0.009324102052630075</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02777722020385525</v>
+        <v>0.02246124262554618</v>
       </c>
       <c r="C48">
-        <v>0.02305839408860877</v>
+        <v>0.0218369466745327</v>
       </c>
       <c r="D48">
-        <v>0.05036529105403436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06766289175577611</v>
+      </c>
+      <c r="E48">
+        <v>-0.06860922008182259</v>
+      </c>
+      <c r="F48">
+        <v>-0.01656270783783638</v>
+      </c>
+      <c r="G48">
+        <v>-0.04168632502076954</v>
+      </c>
+      <c r="H48">
+        <v>-0.04256207009636481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08707079480391153</v>
+        <v>0.07325354335669196</v>
       </c>
       <c r="C50">
-        <v>0.09436638442121664</v>
+        <v>0.07851976946890728</v>
       </c>
       <c r="D50">
-        <v>0.03768280904758569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05146655341488073</v>
+      </c>
+      <c r="E50">
+        <v>-0.07507212419229717</v>
+      </c>
+      <c r="F50">
+        <v>0.03931588007932804</v>
+      </c>
+      <c r="G50">
+        <v>-0.01410117240589054</v>
+      </c>
+      <c r="H50">
+        <v>-0.0432987630014272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01425204088353556</v>
+        <v>0.01210349631484971</v>
       </c>
       <c r="C51">
-        <v>0.03526806998981046</v>
+        <v>0.02167402198651111</v>
       </c>
       <c r="D51">
-        <v>0.08959657626193177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08977988839595451</v>
+      </c>
+      <c r="E51">
+        <v>-0.04761049159877574</v>
+      </c>
+      <c r="F51">
+        <v>-0.007924643284338609</v>
+      </c>
+      <c r="G51">
+        <v>-0.01819591849981511</v>
+      </c>
+      <c r="H51">
+        <v>-0.07261735465409003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08423252546326661</v>
+        <v>0.09823360968703515</v>
       </c>
       <c r="C53">
-        <v>0.09055951531119005</v>
+        <v>0.09553964048497239</v>
       </c>
       <c r="D53">
-        <v>-0.01214284109323895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01329247201022237</v>
+      </c>
+      <c r="E53">
+        <v>-0.1028796563023247</v>
+      </c>
+      <c r="F53">
+        <v>0.01284179292838785</v>
+      </c>
+      <c r="G53">
+        <v>-0.07603409204823271</v>
+      </c>
+      <c r="H53">
+        <v>0.06362035190796907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03943197757658665</v>
+        <v>0.03057260013278988</v>
       </c>
       <c r="C54">
-        <v>0.0402904028338814</v>
+        <v>0.03567156474464105</v>
       </c>
       <c r="D54">
-        <v>0.06091930488174954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.07913050806046355</v>
+      </c>
+      <c r="E54">
+        <v>-0.06779685462128711</v>
+      </c>
+      <c r="F54">
+        <v>-0.01846495911501743</v>
+      </c>
+      <c r="G54">
+        <v>-0.04200991976087261</v>
+      </c>
+      <c r="H54">
+        <v>-0.1005794407203273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08661161567203435</v>
+        <v>0.09355880255587117</v>
       </c>
       <c r="C55">
-        <v>0.07148747155230385</v>
+        <v>0.0797819363782173</v>
       </c>
       <c r="D55">
-        <v>-0.01722206993326463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02090774352480613</v>
+      </c>
+      <c r="E55">
+        <v>-0.06792835205680078</v>
+      </c>
+      <c r="F55">
+        <v>0.0212118063984173</v>
+      </c>
+      <c r="G55">
+        <v>-0.03269514860692723</v>
+      </c>
+      <c r="H55">
+        <v>0.03963901059230324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1450440790576822</v>
+        <v>0.1493420902304431</v>
       </c>
       <c r="C56">
-        <v>0.09891353481126576</v>
+        <v>0.1138262831764444</v>
       </c>
       <c r="D56">
-        <v>-0.02034827631622212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02512460733013119</v>
+      </c>
+      <c r="E56">
+        <v>-0.05511069357281288</v>
+      </c>
+      <c r="F56">
+        <v>0.01694128341833645</v>
+      </c>
+      <c r="G56">
+        <v>-0.0457169699414257</v>
+      </c>
+      <c r="H56">
+        <v>0.04957342144522912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.04174010467610485</v>
+        <v>0.03599179542326428</v>
       </c>
       <c r="C58">
-        <v>-0.01234445454667706</v>
+        <v>0.008918728502350886</v>
       </c>
       <c r="D58">
-        <v>0.4099852480603858</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3724697157745984</v>
+      </c>
+      <c r="E58">
+        <v>-0.2342367137600135</v>
+      </c>
+      <c r="F58">
+        <v>0.06723571935023243</v>
+      </c>
+      <c r="G58">
+        <v>0.5116438770093595</v>
+      </c>
+      <c r="H58">
+        <v>0.2899554839179382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1356910318810854</v>
+        <v>0.1542937502597216</v>
       </c>
       <c r="C59">
-        <v>-0.2027501970102203</v>
+        <v>-0.1882867906276038</v>
       </c>
       <c r="D59">
-        <v>0.03427693550790601</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04484578545398737</v>
+      </c>
+      <c r="E59">
+        <v>-0.01137911464103388</v>
+      </c>
+      <c r="F59">
+        <v>-0.02652988996662429</v>
+      </c>
+      <c r="G59">
+        <v>0.01624833275749298</v>
+      </c>
+      <c r="H59">
+        <v>0.0204829733583348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2541993310550061</v>
+        <v>0.2342419068801245</v>
       </c>
       <c r="C60">
-        <v>0.07262974341369206</v>
+        <v>0.08275775802574789</v>
       </c>
       <c r="D60">
-        <v>0.1488113311119349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1526165426581592</v>
+      </c>
+      <c r="E60">
+        <v>0.3322638215618696</v>
+      </c>
+      <c r="F60">
+        <v>0.1496129382057322</v>
+      </c>
+      <c r="G60">
+        <v>0.03517154098479953</v>
+      </c>
+      <c r="H60">
+        <v>0.0531391646836669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05087455223018714</v>
+        <v>0.044942718867654</v>
       </c>
       <c r="C61">
-        <v>0.05465719146943241</v>
+        <v>0.05508912048318621</v>
       </c>
       <c r="D61">
-        <v>0.08002997213941354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.08400930938963412</v>
+      </c>
+      <c r="E61">
+        <v>-0.0317574796856641</v>
+      </c>
+      <c r="F61">
+        <v>-0.004542167198783808</v>
+      </c>
+      <c r="G61">
+        <v>-0.04832892146368808</v>
+      </c>
+      <c r="H61">
+        <v>-0.06373516588979349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01846006639649705</v>
+        <v>0.01820651005629869</v>
       </c>
       <c r="C63">
-        <v>0.02817188073482998</v>
+        <v>0.02820951813381415</v>
       </c>
       <c r="D63">
-        <v>0.03714533590731194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06155326324981596</v>
+      </c>
+      <c r="E63">
+        <v>-0.06775846433411099</v>
+      </c>
+      <c r="F63">
+        <v>0.01791244208398152</v>
+      </c>
+      <c r="G63">
+        <v>-0.02230292351669881</v>
+      </c>
+      <c r="H63">
+        <v>-0.037009988981416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05622724412998915</v>
+        <v>0.05852405208819238</v>
       </c>
       <c r="C64">
-        <v>0.05592832711653201</v>
+        <v>0.06818230834198807</v>
       </c>
       <c r="D64">
-        <v>0.05159279014365273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04819751804957035</v>
+      </c>
+      <c r="E64">
+        <v>-0.04294436966818937</v>
+      </c>
+      <c r="F64">
+        <v>-0.02658770230114256</v>
+      </c>
+      <c r="G64">
+        <v>-0.07595423514100644</v>
+      </c>
+      <c r="H64">
+        <v>-0.01753399524980076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06562137269431706</v>
+        <v>0.05517851508399305</v>
       </c>
       <c r="C65">
-        <v>0.02345578544586871</v>
+        <v>0.02214633297437022</v>
       </c>
       <c r="D65">
-        <v>0.09893028049663496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.116971619551113</v>
+      </c>
+      <c r="E65">
+        <v>-0.01886808955043188</v>
+      </c>
+      <c r="F65">
+        <v>0.01943207217372327</v>
+      </c>
+      <c r="G65">
+        <v>0.03772118879628836</v>
+      </c>
+      <c r="H65">
+        <v>0.01736653257276003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05410020234115662</v>
+        <v>0.04971485554658728</v>
       </c>
       <c r="C66">
-        <v>0.06603279919841641</v>
+        <v>0.0689045100564997</v>
       </c>
       <c r="D66">
-        <v>0.09398782615330126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1139826642157251</v>
+      </c>
+      <c r="E66">
+        <v>-0.03944427540755371</v>
+      </c>
+      <c r="F66">
+        <v>-0.004250385034385518</v>
+      </c>
+      <c r="G66">
+        <v>-0.02891621576431455</v>
+      </c>
+      <c r="H66">
+        <v>-0.06199769221956331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0557186700041202</v>
+        <v>0.04402089520398902</v>
       </c>
       <c r="C67">
-        <v>0.03612287916846773</v>
+        <v>0.02930970257160202</v>
       </c>
       <c r="D67">
-        <v>0.01097317839978745</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02152311680343485</v>
+      </c>
+      <c r="E67">
+        <v>-0.02573153102389414</v>
+      </c>
+      <c r="F67">
+        <v>0.001935297721369162</v>
+      </c>
+      <c r="G67">
+        <v>0.006348768101751471</v>
+      </c>
+      <c r="H67">
+        <v>-0.03537375800388297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.145730315599738</v>
+        <v>0.1656113132340289</v>
       </c>
       <c r="C68">
-        <v>-0.2869167803372275</v>
+        <v>-0.2397196828049904</v>
       </c>
       <c r="D68">
-        <v>-0.03420774325866793</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00515509842950104</v>
+      </c>
+      <c r="E68">
+        <v>-0.05629265938137393</v>
+      </c>
+      <c r="F68">
+        <v>0.02759677081895328</v>
+      </c>
+      <c r="G68">
+        <v>0.01442565792662813</v>
+      </c>
+      <c r="H68">
+        <v>0.008619416387696761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09716607544628188</v>
+        <v>0.08997424052470769</v>
       </c>
       <c r="C69">
-        <v>0.09040181260402513</v>
+        <v>0.09968349446608767</v>
       </c>
       <c r="D69">
-        <v>0.02085185534534247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03866014797140667</v>
+      </c>
+      <c r="E69">
+        <v>-0.05174423742094083</v>
+      </c>
+      <c r="F69">
+        <v>0.001478442824871584</v>
+      </c>
+      <c r="G69">
+        <v>-0.05905903415994061</v>
+      </c>
+      <c r="H69">
+        <v>-0.01406833938281587</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1298106735124527</v>
+        <v>0.1570359613430391</v>
       </c>
       <c r="C71">
-        <v>-0.2519914581286655</v>
+        <v>-0.2342544800763959</v>
       </c>
       <c r="D71">
-        <v>0.02592917852142203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02673636038407265</v>
+      </c>
+      <c r="E71">
+        <v>-0.0632173023982107</v>
+      </c>
+      <c r="F71">
+        <v>0.02445439763705699</v>
+      </c>
+      <c r="G71">
+        <v>-0.04826016504864226</v>
+      </c>
+      <c r="H71">
+        <v>-0.004295027732062751</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09698950781499539</v>
+        <v>0.1031512732093016</v>
       </c>
       <c r="C72">
-        <v>0.05341592821259723</v>
+        <v>0.05545078274333181</v>
       </c>
       <c r="D72">
-        <v>0.06710487637645098</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08177591076213267</v>
+      </c>
+      <c r="E72">
+        <v>0.003092237346926149</v>
+      </c>
+      <c r="F72">
+        <v>0.03770658117512318</v>
+      </c>
+      <c r="G72">
+        <v>-0.05648821736253073</v>
+      </c>
+      <c r="H72">
+        <v>-0.01750425817613087</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3073186917235141</v>
+        <v>0.2714522895415148</v>
       </c>
       <c r="C73">
-        <v>-0.00166811643555341</v>
+        <v>0.04188981729529723</v>
       </c>
       <c r="D73">
-        <v>0.311695839236431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2677871517532155</v>
+      </c>
+      <c r="E73">
+        <v>0.626946789719351</v>
+      </c>
+      <c r="F73">
+        <v>0.2075050382817492</v>
+      </c>
+      <c r="G73">
+        <v>0.06341993357041507</v>
+      </c>
+      <c r="H73">
+        <v>0.05910421375788831</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1048100339729036</v>
+        <v>0.108812661177999</v>
       </c>
       <c r="C74">
-        <v>0.09063505778522939</v>
+        <v>0.09214560120670583</v>
       </c>
       <c r="D74">
-        <v>0.004284775310893827</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01682402283724735</v>
+      </c>
+      <c r="E74">
+        <v>-0.07972310092605911</v>
+      </c>
+      <c r="F74">
+        <v>0.04037806491030758</v>
+      </c>
+      <c r="G74">
+        <v>-0.02806921776775791</v>
+      </c>
+      <c r="H74">
+        <v>0.07964587093305954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2556099992166412</v>
+        <v>0.2548877188999629</v>
       </c>
       <c r="C75">
-        <v>0.1180916443061</v>
+        <v>0.1421541882653542</v>
       </c>
       <c r="D75">
-        <v>-0.1193058219184278</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.133023800896774</v>
+      </c>
+      <c r="E75">
+        <v>-0.05712032802867699</v>
+      </c>
+      <c r="F75">
+        <v>-0.01935923439179423</v>
+      </c>
+      <c r="G75">
+        <v>-0.03463038213093406</v>
+      </c>
+      <c r="H75">
+        <v>0.1669218659340765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1135641373162429</v>
+        <v>0.1278348107576724</v>
       </c>
       <c r="C76">
-        <v>0.09194438648813379</v>
+        <v>0.1007826417992666</v>
       </c>
       <c r="D76">
-        <v>-0.02446384698863747</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03008230235106823</v>
+      </c>
+      <c r="E76">
+        <v>-0.1038274431245891</v>
+      </c>
+      <c r="F76">
+        <v>-0.01179181124332707</v>
+      </c>
+      <c r="G76">
+        <v>-0.04278287239804741</v>
+      </c>
+      <c r="H76">
+        <v>0.05214471061862257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08637978544339052</v>
+        <v>0.06845183662054102</v>
       </c>
       <c r="C77">
-        <v>0.02789629822163984</v>
+        <v>0.05789216803378161</v>
       </c>
       <c r="D77">
-        <v>0.09930087726888868</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1237568473718388</v>
+      </c>
+      <c r="E77">
+        <v>-0.05970995023279044</v>
+      </c>
+      <c r="F77">
+        <v>-0.2918724868143378</v>
+      </c>
+      <c r="G77">
+        <v>0.1569264430863728</v>
+      </c>
+      <c r="H77">
+        <v>0.1083846123432083</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04226731581419952</v>
+        <v>0.04571878752291707</v>
       </c>
       <c r="C78">
-        <v>0.04454862459715028</v>
+        <v>0.05425369750404456</v>
       </c>
       <c r="D78">
-        <v>0.09219052310167017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1232674728087141</v>
+      </c>
+      <c r="E78">
+        <v>-0.03531236767764685</v>
+      </c>
+      <c r="F78">
+        <v>0.000376711293790431</v>
+      </c>
+      <c r="G78">
+        <v>-0.03348729379974842</v>
+      </c>
+      <c r="H78">
+        <v>-0.01783965581823415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.003447379707624281</v>
+        <v>0.0403697427197731</v>
       </c>
       <c r="C79">
-        <v>-0.001604448486747809</v>
+        <v>0.06648416956597761</v>
       </c>
       <c r="D79">
-        <v>0.01483214858701353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0571503836455403</v>
+      </c>
+      <c r="E79">
+        <v>-0.1194224960855409</v>
+      </c>
+      <c r="F79">
+        <v>0.0273018791249038</v>
+      </c>
+      <c r="G79">
+        <v>-0.2962064841418307</v>
+      </c>
+      <c r="H79">
+        <v>0.706856891281572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03849162853644436</v>
+        <v>0.03112801679535226</v>
       </c>
       <c r="C80">
-        <v>0.02989980972532643</v>
+        <v>0.03789012829242548</v>
       </c>
       <c r="D80">
-        <v>0.03194714177421822</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0353843984308065</v>
+      </c>
+      <c r="E80">
+        <v>-0.003822553164380011</v>
+      </c>
+      <c r="F80">
+        <v>-0.03963817847586436</v>
+      </c>
+      <c r="G80">
+        <v>0.01427087511419284</v>
+      </c>
+      <c r="H80">
+        <v>-0.04118894621246845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1528083881795861</v>
+        <v>0.1428674405428376</v>
       </c>
       <c r="C81">
-        <v>0.1014958838477051</v>
+        <v>0.1096523674818008</v>
       </c>
       <c r="D81">
-        <v>-0.07602843463254508</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08591578035458665</v>
+      </c>
+      <c r="E81">
+        <v>-0.09987884462703163</v>
+      </c>
+      <c r="F81">
+        <v>-0.01270341554806019</v>
+      </c>
+      <c r="G81">
+        <v>-0.03965342272401812</v>
+      </c>
+      <c r="H81">
+        <v>0.07362248908882589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2457838735549372</v>
+        <v>0.2526026804221846</v>
       </c>
       <c r="C82">
-        <v>0.1568886865907834</v>
+        <v>0.2036435729684133</v>
       </c>
       <c r="D82">
-        <v>-0.1772325205805412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2192162661647961</v>
+      </c>
+      <c r="E82">
+        <v>0.06893416322107582</v>
+      </c>
+      <c r="F82">
+        <v>-0.002547870613481773</v>
+      </c>
+      <c r="G82">
+        <v>-0.3511001776923298</v>
+      </c>
+      <c r="H82">
+        <v>-0.3113652673211085</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04373539657105315</v>
+        <v>0.02806796949519701</v>
       </c>
       <c r="C83">
-        <v>0.04190872342546449</v>
+        <v>0.04792298088005405</v>
       </c>
       <c r="D83">
-        <v>0.07174676767759071</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05273383927893044</v>
+      </c>
+      <c r="E83">
+        <v>-0.004721171100699692</v>
+      </c>
+      <c r="F83">
+        <v>-0.0259017269296733</v>
+      </c>
+      <c r="G83">
+        <v>0.002494261152960011</v>
+      </c>
+      <c r="H83">
+        <v>-0.02615407861347049</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>7.687060453307235e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002160208665407651</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.00352194113393477</v>
+      </c>
+      <c r="E84">
+        <v>-0.009998526695689019</v>
+      </c>
+      <c r="F84">
+        <v>0.002697041287909072</v>
+      </c>
+      <c r="G84">
+        <v>0.005264933706231383</v>
+      </c>
+      <c r="H84">
+        <v>-0.007611237219951431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1935740186988468</v>
+        <v>0.1815259027849706</v>
       </c>
       <c r="C85">
-        <v>0.09979035612237519</v>
+        <v>0.1162782103247153</v>
       </c>
       <c r="D85">
-        <v>-0.1037894078983492</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1059469335104135</v>
+      </c>
+      <c r="E85">
+        <v>-0.03742836699968028</v>
+      </c>
+      <c r="F85">
+        <v>0.03342111592774009</v>
+      </c>
+      <c r="G85">
+        <v>-0.0924873969010476</v>
+      </c>
+      <c r="H85">
+        <v>0.1441147199145932</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01524078964119161</v>
+        <v>0.0191256677748918</v>
       </c>
       <c r="C86">
-        <v>0.02047882875876124</v>
+        <v>0.01231819456770258</v>
       </c>
       <c r="D86">
-        <v>0.1353867130344978</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1195717779045199</v>
+      </c>
+      <c r="E86">
+        <v>-0.03229267302587515</v>
+      </c>
+      <c r="F86">
+        <v>-0.009357235419931213</v>
+      </c>
+      <c r="G86">
+        <v>-0.04044476054655052</v>
+      </c>
+      <c r="H86">
+        <v>-0.05193269390514398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03362137941673631</v>
+        <v>0.03401847508293191</v>
       </c>
       <c r="C87">
-        <v>-0.006313241699960559</v>
+        <v>0.0133930341284346</v>
       </c>
       <c r="D87">
-        <v>0.1297070110568682</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1456907992376548</v>
+      </c>
+      <c r="E87">
+        <v>-0.08316757316264252</v>
+      </c>
+      <c r="F87">
+        <v>-0.0658126391182412</v>
+      </c>
+      <c r="G87">
+        <v>0.02975984959949053</v>
+      </c>
+      <c r="H87">
+        <v>-0.0214618830220539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1030819407308152</v>
+        <v>0.08648373845712326</v>
       </c>
       <c r="C88">
-        <v>0.08878027966728161</v>
+        <v>0.07103679745073549</v>
       </c>
       <c r="D88">
-        <v>0.0365583349544148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03223540324847728</v>
+      </c>
+      <c r="E88">
+        <v>-0.05708714412537733</v>
+      </c>
+      <c r="F88">
+        <v>-0.002304537617184003</v>
+      </c>
+      <c r="G88">
+        <v>-0.04969132184342496</v>
+      </c>
+      <c r="H88">
+        <v>-0.04008775102687819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2055366037945754</v>
+        <v>0.2395945513716249</v>
       </c>
       <c r="C89">
-        <v>-0.3630743217860635</v>
+        <v>-0.3693390395365853</v>
       </c>
       <c r="D89">
-        <v>-0.04367067881223656</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01142368520801397</v>
+      </c>
+      <c r="E89">
+        <v>-0.08069293413887112</v>
+      </c>
+      <c r="F89">
+        <v>-0.06348855244323467</v>
+      </c>
+      <c r="G89">
+        <v>-0.03712383632716786</v>
+      </c>
+      <c r="H89">
+        <v>-0.03219150386888619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.194673861553869</v>
+        <v>0.2139445011618415</v>
       </c>
       <c r="C90">
-        <v>-0.2995690523959664</v>
+        <v>-0.2847018762779183</v>
       </c>
       <c r="D90">
-        <v>-0.03292748117807433</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.006146752539591033</v>
+      </c>
+      <c r="E90">
+        <v>-0.05932187822158071</v>
+      </c>
+      <c r="F90">
+        <v>-0.006457170154485587</v>
+      </c>
+      <c r="G90">
+        <v>0.01491878690564671</v>
+      </c>
+      <c r="H90">
+        <v>-0.05757377418704811</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1936402722703822</v>
+        <v>0.1855540917382749</v>
       </c>
       <c r="C91">
-        <v>0.1584534019721492</v>
+        <v>0.1620270354600047</v>
       </c>
       <c r="D91">
-        <v>-0.06984753859300229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08656218426118083</v>
+      </c>
+      <c r="E91">
+        <v>-0.07850067744166679</v>
+      </c>
+      <c r="F91">
+        <v>0.000166857317186787</v>
+      </c>
+      <c r="G91">
+        <v>-0.03715681137866722</v>
+      </c>
+      <c r="H91">
+        <v>0.1557398820350598</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1801004971019929</v>
+        <v>0.1959487468770178</v>
       </c>
       <c r="C92">
-        <v>-0.2653632547181778</v>
+        <v>-0.2833390733730997</v>
       </c>
       <c r="D92">
-        <v>0.01213695965583142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003060041423543435</v>
+      </c>
+      <c r="E92">
+        <v>-0.0809269408419189</v>
+      </c>
+      <c r="F92">
+        <v>-0.04294920185700114</v>
+      </c>
+      <c r="G92">
+        <v>-0.03924150534480928</v>
+      </c>
+      <c r="H92">
+        <v>-0.036817358975965</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2200761545285757</v>
+        <v>0.2362032170963262</v>
       </c>
       <c r="C93">
-        <v>-0.3155795494401757</v>
+        <v>-0.3008036111465154</v>
       </c>
       <c r="D93">
-        <v>-0.01243210666661047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.006977578229150695</v>
+      </c>
+      <c r="E93">
+        <v>-0.04097336891365265</v>
+      </c>
+      <c r="F93">
+        <v>0.02531548441483838</v>
+      </c>
+      <c r="G93">
+        <v>-0.03191272039243401</v>
+      </c>
+      <c r="H93">
+        <v>-0.01611588727572271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3833594593367761</v>
+        <v>0.355294210374314</v>
       </c>
       <c r="C94">
-        <v>0.2202038503213962</v>
+        <v>0.2241534237388838</v>
       </c>
       <c r="D94">
-        <v>-0.4989813883196295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4330356501373883</v>
+      </c>
+      <c r="E94">
+        <v>-0.06618460431111776</v>
+      </c>
+      <c r="F94">
+        <v>-0.08947554123404057</v>
+      </c>
+      <c r="G94">
+        <v>0.5986490646096645</v>
+      </c>
+      <c r="H94">
+        <v>-0.1700997955322391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09762228375363448</v>
+        <v>0.07265626715908717</v>
       </c>
       <c r="C95">
-        <v>-0.03411770904138116</v>
+        <v>0.02706569573793936</v>
       </c>
       <c r="D95">
-        <v>0.1770607076808267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1514967272369834</v>
+      </c>
+      <c r="E95">
+        <v>0.2385418351345917</v>
+      </c>
+      <c r="F95">
+        <v>-0.8795980975803748</v>
+      </c>
+      <c r="G95">
+        <v>-0.05388597060130081</v>
+      </c>
+      <c r="H95">
+        <v>0.06712522811236016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1687475279920336</v>
+        <v>0.1695554048727028</v>
       </c>
       <c r="C98">
-        <v>0.004625793407193176</v>
+        <v>0.03847833606607807</v>
       </c>
       <c r="D98">
-        <v>0.1807915700939811</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1625364370112935</v>
+      </c>
+      <c r="E98">
+        <v>0.2523979164513349</v>
+      </c>
+      <c r="F98">
+        <v>0.1300494516848499</v>
+      </c>
+      <c r="G98">
+        <v>0.003267429773671218</v>
+      </c>
+      <c r="H98">
+        <v>0.01051993932590977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008859835670175328</v>
+        <v>0.008464272760030749</v>
       </c>
       <c r="C101">
-        <v>0.0260274097297443</v>
+        <v>0.02333708650377469</v>
       </c>
       <c r="D101">
-        <v>0.0492970406192523</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.06948902098568635</v>
+      </c>
+      <c r="E101">
+        <v>-0.06351367530355574</v>
+      </c>
+      <c r="F101">
+        <v>0.001245390178726863</v>
+      </c>
+      <c r="G101">
+        <v>-0.04761821755287974</v>
+      </c>
+      <c r="H101">
+        <v>-0.0764431250361458</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1225632781625755</v>
+        <v>0.1213194300103751</v>
       </c>
       <c r="C102">
-        <v>0.07711674122075059</v>
+        <v>0.1099010038817483</v>
       </c>
       <c r="D102">
-        <v>-0.02197791557772695</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04539402338309876</v>
+      </c>
+      <c r="E102">
+        <v>-0.006251641803807857</v>
+      </c>
+      <c r="F102">
+        <v>-0.02705986647832966</v>
+      </c>
+      <c r="G102">
+        <v>-0.04735449209006275</v>
+      </c>
+      <c r="H102">
+        <v>0.02461101500617496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
